--- a/final_report/thesis_charts.xlsx
+++ b/final_report/thesis_charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaak\Document\engsci_thesis\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA4F3A2-2FE0-47A2-A939-8BC7C35F8D95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E074B-6BF0-48F3-8507-07296FABE5D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27210" yWindow="3225" windowWidth="29490" windowHeight="15435" xr2:uid="{5D6391EE-4981-4592-A0FD-F1E471CC3565}"/>
+    <workbookView xWindow="18840" yWindow="3150" windowWidth="29490" windowHeight="15435" xr2:uid="{5D6391EE-4981-4592-A0FD-F1E471CC3565}"/>
   </bookViews>
   <sheets>
     <sheet name="NCF_memory" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B3A3D-0030-46D4-ADC4-6CE4056E1EC6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/final_report/thesis_charts.xlsx
+++ b/final_report/thesis_charts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaak\Document\engsci_thesis\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E074B-6BF0-48F3-8507-07296FABE5D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D6647-8B57-42F9-B99E-10500401B3C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="3150" windowWidth="29490" windowHeight="15435" xr2:uid="{5D6391EE-4981-4592-A0FD-F1E471CC3565}"/>
+    <workbookView xWindow="41280" yWindow="9075" windowWidth="19635" windowHeight="15435" activeTab="1" xr2:uid="{5D6391EE-4981-4592-A0FD-F1E471CC3565}"/>
   </bookViews>
   <sheets>
     <sheet name="NCF_memory" sheetId="1" r:id="rId1"/>
+    <sheet name="ResNet-50_memory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Feature maps</t>
   </si>
@@ -507,6 +508,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Mini-Batch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -748,7 +818,768 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>ResNet-50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Memory Breakdown</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResNet-50_memory'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature maps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2BE-443C-ADB1-8AFACE374E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResNet-50_memory'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Layer weights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2BE-443C-ADB1-8AFACE374E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ResNet-50_memory'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Layer weight gradients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ResNet-50_memory'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C2BE-443C-ADB1-8AFACE374E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="520240448"/>
+        <c:axId val="520240776"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResNet-50_memory'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Mini-batch size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResNet-50_memory'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'ResNet-50_memory'!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C2BE-443C-ADB1-8AFACE374E39}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="520240448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Mini-Batch Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520240776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="520240776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520240448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1293,20 +2124,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602797</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1314,6 +2650,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A25F801-B492-4FDA-A607-7B1740AEA8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18317</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0723B618-F4BE-4953-92FE-1F70B0E12393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B3A3D-0030-46D4-ADC4-6CE4056E1EC6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="C8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,4 +3083,96 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF0BFC-766E-4E95-8FDD-8AFE6159604F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>715</v>
+      </c>
+      <c r="C2">
+        <v>102</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1282</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2715</v>
+      </c>
+      <c r="C4">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5219</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/final_report/thesis_charts.xlsx
+++ b/final_report/thesis_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaak\Document\engsci_thesis\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D6647-8B57-42F9-B99E-10500401B3C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981A9AA-574D-4EB7-A028-15201EE390E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41280" yWindow="9075" windowWidth="19635" windowHeight="15435" activeTab="1" xr2:uid="{5D6391EE-4981-4592-A0FD-F1E471CC3565}"/>
   </bookViews>
@@ -923,11 +923,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:srgbClr val="FF0000"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -996,10 +1003,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1071,7 +1080,9 @@
               <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1387,7 +1398,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Memory (MB)</a:t>
+                  <a:t>Memory (GB)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1455,6 +1466,9 @@
         <c:crossAx val="520240448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3089,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF0BFC-766E-4E95-8FDD-8AFE6159604F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
